--- a/arquivos/PowerBI + SQLServer/AULA - 1_RH/SALARIOS.xlsx
+++ b/arquivos/PowerBI + SQLServer/AULA - 1_RH/SALARIOS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB7722A-81A9-4599-BBCC-4D51F7A020D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EBE3B7-F1D6-485F-9412-7A8528997EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2535" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="enunciado" sheetId="8" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,71 +492,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,19 +568,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +595,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,31 +618,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1007,6 +976,31 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Estilo de Tabela 1" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="0" xr9:uid="{8AE8A8A1-C79E-48BD-B74A-762B252891F0}"/>
@@ -1263,29 +1257,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8299E160-BE3C-46CC-9AB6-D9133AFC9507}" name="tb_rh" displayName="tb_rh" ref="A1:K22" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8299E160-BE3C-46CC-9AB6-D9133AFC9507}" name="tb_rh" displayName="tb_rh" ref="A1:K22" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:K22" xr:uid="{8299E160-BE3C-46CC-9AB6-D9133AFC9507}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5F326600-E30A-4BCA-9926-18D22D7CC8E0}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{35DDAD85-C0C1-4C1A-9977-A1730A63CB3B}" name="NOME" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{596E7082-D39F-4CFE-8A04-DBE1E193DBA9}" name="IDADE" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4FDD17A7-E4C0-4EDE-AF19-C24EDF78F0FB}" name="DATA ADIMISSAO" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{FD32AAF7-C855-4A54-A0ED-AF041C37F78F}" name="DEPARTAMENTO" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E7C464F7-CE65-4C04-BFBE-59320FC05739}" name="SALARIO" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{7B52DC4B-FF4C-40C9-B604-593A85561BB8}" name="QTDE FALTA" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A4E7B6E7-F6BB-4688-872F-D8BB4A5EA90B}" name="FILIAL" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B379F01D-91D8-4A7E-BDF8-F7FE1FB41991}" name="DEMISSOES" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{402460B4-8561-4C04-9723-D65D9720428E}" name="SEXO" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{C757877A-E73D-4848-90A6-DF711C67A980}" name="CONTRATACÕES FEITAS" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5F326600-E30A-4BCA-9926-18D22D7CC8E0}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{35DDAD85-C0C1-4C1A-9977-A1730A63CB3B}" name="NOME" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{596E7082-D39F-4CFE-8A04-DBE1E193DBA9}" name="IDADE" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{4FDD17A7-E4C0-4EDE-AF19-C24EDF78F0FB}" name="DATA ADIMISSAO" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FD32AAF7-C855-4A54-A0ED-AF041C37F78F}" name="DEPARTAMENTO" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E7C464F7-CE65-4C04-BFBE-59320FC05739}" name="SALARIO" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7B52DC4B-FF4C-40C9-B604-593A85561BB8}" name="QTDE FALTA" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A4E7B6E7-F6BB-4688-872F-D8BB4A5EA90B}" name="FILIAL" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{B379F01D-91D8-4A7E-BDF8-F7FE1FB41991}" name="DEMISSOES" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{402460B4-8561-4C04-9723-D65D9720428E}" name="SEXO" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C757877A-E73D-4848-90A6-DF711C67A980}" name="CONTRATACÕES FEITAS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1323,9 +1317,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1358,26 +1352,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,26 +1387,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1621,52 +1581,52 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="I5" s="45" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="I7" s="33" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1676,29 +1636,29 @@
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="I9" s="33" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="I9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1708,29 +1668,29 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="33" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="I11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1740,72 +1700,72 @@
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="33" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="I13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="I15" s="33" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="I15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
@@ -1839,7 +1799,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:K22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,77 +1819,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>19</v>
       </c>
-      <c r="D2" s="17">
-        <v>43501</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="16">
+        <v>43136</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>2000</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="14">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1947,24 +1907,24 @@
       <c r="F3" s="8">
         <v>8000</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1982,24 +1942,24 @@
       <c r="F4" s="8">
         <v>7000</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2017,24 +1977,24 @@
       <c r="F5" s="8">
         <v>3588</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2052,24 +2012,24 @@
       <c r="F6" s="8">
         <v>5600</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2087,24 +2047,24 @@
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2122,24 +2082,24 @@
       <c r="F8" s="8">
         <v>1800</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2157,24 +2117,24 @@
       <c r="F9" s="10">
         <v>2500</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2192,24 +2152,24 @@
       <c r="F10" s="10">
         <v>3000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2227,24 +2187,24 @@
       <c r="F11" s="8">
         <v>3000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2262,24 +2222,24 @@
       <c r="F12" s="8">
         <v>2300</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>7</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2297,24 +2257,24 @@
       <c r="F13" s="8">
         <v>12000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="21">
         <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2332,24 +2292,24 @@
       <c r="F14" s="8">
         <v>15000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>20</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2367,24 +2327,24 @@
       <c r="F15" s="8">
         <v>14000</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>171</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2402,24 +2362,24 @@
       <c r="F16" s="8">
         <v>8000</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>523</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2437,24 +2397,24 @@
       <c r="F17" s="8">
         <v>1500</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>555</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2472,24 +2432,24 @@
       <c r="F18" s="8">
         <v>4500</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>369</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2507,24 +2467,24 @@
       <c r="F19" s="8">
         <v>4000</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2542,24 +2502,24 @@
       <c r="F20" s="8">
         <v>3500</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2577,24 +2537,24 @@
       <c r="F21" s="8">
         <v>4500</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2612,19 +2572,19 @@
       <c r="F22" s="8">
         <v>7000</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>0</v>
       </c>
     </row>
